--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/个人资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/个人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,357 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3.42746</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.076079999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11883</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>4.22043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.93146</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.97298</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.71045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.56738</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.79117</v>
-      </c>
-      <c r="L2" t="n">
-        <v>152.23207</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11443</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.33361</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.74361</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.66243</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.736879999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.47781</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>1.48765</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04671</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.71734</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>14.96077</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.61448</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.41762</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.27447</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>15.83033</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>3.31832</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.11889</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.038410000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.15494</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.52737</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>8.311590000000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>6.62465</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2.7703</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.02952</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.20891</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.90624</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9302</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>3.5109</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8.451739999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.1407</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.21249</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.09704</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.061680000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>174.87623</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.40429</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.91833</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.45776</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.60605</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.17973</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.10763</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.11317</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>1.89253</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.03581</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.00655</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.64845</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12.13001</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.88972</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.34701</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.69636</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>17.72025</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>3.42535</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.84295</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11.15114</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.16262</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>4.41949</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>8.747529999999999</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.80513</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6447</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.00377</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.82259</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.90218</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.60486</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>4.83867</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.82047</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.54729</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.37869</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05419</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.57222</v>
-      </c>
-      <c r="L4" t="n">
-        <v>256.1308</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.43358</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.81766</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.883179999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23.9778</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="R4" t="n">
-        <v>14.20859</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.84553</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>1.94239</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.00655</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.62472</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>16.80179</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13.4031</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.25757</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.567909999999999</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>21.96765</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>4.18103</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13.15706</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12.72347</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.6852200000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.52321</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13.48765</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>7.18428</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.2142</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
